--- a/Upload Sheets/M_M Frankel Disposables.xlsx
+++ b/Upload Sheets/M_M Frankel Disposables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Joel Jacob\Hello World\mesivta-order ms-SQL\Upload Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0D4CD7-72EB-4A95-B7A0-A1D988DA5809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704546F1-E1EC-4B89-94BE-F280D1221577}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0509F140-DD10-4F8B-A72F-C72940CF5B12}"/>
   </bookViews>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431111BD-5FB2-44A4-8901-400859771A69}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,10 +1036,16 @@
       <c r="A43" t="s">
         <v>42</v>
       </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
